--- a/testdata/samples/channels/channels_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
+++ b/testdata/samples/channels/channels_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
@@ -37,6 +37,12 @@
     <t>sha256:cc0ba155b29cbae0be0e1c2120017c541c9f5e6f51a47cd4ed74574c68e7c90d</t>
   </si>
   <si>
+    <t>Is using skipRange</t>
+  </si>
+  <si>
+    <t>Is Following Name Convention</t>
+  </si>
+  <si>
     <t>Has Invalid Versioning</t>
   </si>
   <si>
@@ -53,12 +59,6 @@
   </si>
   <si>
     <t>Is using skips</t>
-  </si>
-  <si>
-    <t>Is using skipRange</t>
-  </si>
-  <si>
-    <t>Is Following Name Convention</t>
   </si>
   <si>
     <t>amq-broker-lts</t>
@@ -461,28 +461,28 @@
     </row>
     <row r="5" ht="15" customHeight="true">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="true">
